--- a/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
+++ b/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\PRD2018_G06\渔乐生活\受控文档\会议纪要\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A5A932-6B5D-4EA3-BEBC-EC252289AFE9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDAC607-9DDC-4DD8-9C02-EA861B7239E8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="小组例会与组内评审" sheetId="1" r:id="rId1"/>
+    <sheet name="访谈" sheetId="3" r:id="rId2"/>
+    <sheet name="里程碑评审" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>会议日期</t>
   </si>
@@ -62,10 +64,6 @@
     <t>https://pan.baidu.com/s/1DzEwLlc1dXOp78VNb4c8Vw</t>
   </si>
   <si>
-    <t>访谈杨枨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://pan.baidu.com/s/1V1UMjEP3usdr3A8VjhETPg</t>
   </si>
   <si>
@@ -131,7 +129,17 @@
     <t>https://pan.baidu.com/s/1QRLUK2LghD53n-arFTc1sA</t>
   </si>
   <si>
-    <t>访谈杨枨</t>
+    <t>https://pan.baidu.com/s/1sFsgqZkzT9ZHG3OZNK-KCw</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1HHCIfAWhwFpZqU_IeY_Wwg</t>
+  </si>
+  <si>
+    <t>需求工程项目计划评审</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组例会</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -139,32 +147,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://pan.baidu.com/s/1sFsgqZkzT9ZHG3OZNK-KCw</t>
-  </si>
-  <si>
-    <t>https://pan.baidu.com/s/1HHCIfAWhwFpZqU_IeY_Wwg</t>
-  </si>
-  <si>
-    <t>需求工程项目计划评审</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>正式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小组例会</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://pan.baidu.com/s/1elrK4Nkp63AuyZrpmfdG1g</t>
   </si>
   <si>
     <t>https://pan.baidu.com/s/12I8mphh-OwXL1SpcyGJMZA</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1NaeoJ6kjzIQAJ52uK50kBw</t>
   </si>
 </sst>
 </file>
@@ -552,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2599E4-81EE-493E-86BD-F580DA870F27}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -565,7 +554,7 @@
     <col min="4" max="4" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -582,211 +571,321 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>20180926</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>20180927</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>20180927</v>
+        <v>20180928</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>20180928</v>
+        <v>20181011</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>20181018</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>20181025</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>20181011</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>20181011</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>20181018</v>
+        <v>20181028</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>20181018</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>20181029</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>20181025</v>
+        <v>20181031</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>20181028</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>20181029</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>20181031</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>20181101</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="3" t="s">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>20181108</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>20181107</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>20181108</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F5068E-AF4E-4913-8E14-9AB897F573A8}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="49.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>20180926</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20181011</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20181018</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>20181101</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>20181115</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4623298-D858-4474-A699-CD832EF9EB8D}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="48.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>20181107</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
+++ b/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\PRD2018_G06\渔乐生活\受控文档\会议纪要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDAC607-9DDC-4DD8-9C02-EA861B7239E8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8770B18B-7D88-4FD6-BB5C-FEEE2AD2B1E0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>会议日期</t>
   </si>
@@ -154,6 +154,17 @@
   </si>
   <si>
     <t>https://pan.baidu.com/s/1NaeoJ6kjzIQAJ52uK50kBw</t>
+  </si>
+  <si>
+    <t>小组例会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1BUzHLmN16tySGocB3rf_-A</t>
   </si>
 </sst>
 </file>
@@ -541,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2599E4-81EE-493E-86BD-F580DA870F27}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -716,6 +727,20 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>20181115</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
+++ b/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\PRD2018_G06\渔乐生活\受控文档\会议纪要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8770B18B-7D88-4FD6-BB5C-FEEE2AD2B1E0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEE31DA-BB3A-43B0-B561-986AA958CD24}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>会议日期</t>
   </si>
@@ -165,6 +165,17 @@
   </si>
   <si>
     <t>https://pan.baidu.com/s/1BUzHLmN16tySGocB3rf_-A</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1cT8DuUheyhDoVovOLnZ1cQ</t>
+  </si>
+  <si>
+    <t>常规</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组例会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -552,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2599E4-81EE-493E-86BD-F580DA870F27}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -740,6 +751,20 @@
       </c>
       <c r="D11" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>20181122</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
+++ b/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\PRD2018_G06\渔乐生活\受控文档\会议纪要\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.WIN7-1611070926\Personal\PRD2018_G06\渔乐生活\受控文档\会议纪要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8770B18B-7D88-4FD6-BB5C-FEEE2AD2B1E0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12675" windowHeight="10830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="小组例会与组内评审" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>会议日期</t>
   </si>
@@ -165,12 +164,20 @@
   </si>
   <si>
     <t>https://pan.baidu.com/s/1BUzHLmN16tySGocB3rf_-A</t>
+  </si>
+  <si>
+    <t>访谈彭彬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1lsP-blodHiNqb1c7ZDuJNg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -551,21 +558,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2599E4-81EE-493E-86BD-F580DA870F27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,7 +589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>20180927</v>
       </c>
@@ -596,7 +603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>20180928</v>
       </c>
@@ -610,7 +617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>20181011</v>
       </c>
@@ -624,7 +631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>20181018</v>
       </c>
@@ -638,7 +645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>20181025</v>
       </c>
@@ -652,7 +659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20181028</v>
       </c>
@@ -666,7 +673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20181029</v>
       </c>
@@ -680,7 +687,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>20181031</v>
       </c>
@@ -697,7 +704,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>20181108</v>
       </c>
@@ -728,7 +735,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>20181115</v>
       </c>
@@ -750,22 +757,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F5068E-AF4E-4913-8E14-9AB897F573A8}">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" customWidth="1"/>
-    <col min="4" max="4" width="49.109375" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="7.875" customWidth="1"/>
+    <col min="4" max="4" width="49.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,7 +789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>20180926</v>
       </c>
@@ -796,7 +803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20181011</v>
       </c>
@@ -810,7 +817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20181018</v>
       </c>
@@ -824,7 +831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>20181101</v>
       </c>
@@ -844,7 +851,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>20181115</v>
       </c>
@@ -858,27 +865,44 @@
         <v>36</v>
       </c>
     </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>20181123</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4623298-D858-4474-A699-CD832EF9EB8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.21875" customWidth="1"/>
-    <col min="4" max="4" width="48.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="4" max="4" width="48.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -895,7 +919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>20181107</v>
       </c>

--- a/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
+++ b/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\PRD2018_G06\渔乐生活\受控文档\会议纪要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEE31DA-BB3A-43B0-B561-986AA958CD24}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5141C5E1-80B6-4C7B-B05D-52C33241CED9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>会议日期</t>
   </si>
@@ -176,6 +176,28 @@
   <si>
     <t>小组例会</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组例会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>访谈杨枨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1-EbcVt6vJRs9VhZr-uUvvw</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1ECYwKFdKYqyKKZixLwsmig</t>
   </si>
 </sst>
 </file>
@@ -563,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2599E4-81EE-493E-86BD-F580DA870F27}">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -767,6 +789,20 @@
         <v>40</v>
       </c>
     </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>20181125</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -776,10 +812,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F5068E-AF4E-4913-8E14-9AB897F573A8}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -881,6 +917,20 @@
       </c>
       <c r="D6" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>20181125</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
+++ b/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\PRD2018_G06\渔乐生活\受控文档\会议纪要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5141C5E1-80B6-4C7B-B05D-52C33241CED9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44A2A9A-D368-4908-958B-AA5B6FB3F55A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>会议日期</t>
   </si>
@@ -198,6 +198,20 @@
   </si>
   <si>
     <t>https://pan.baidu.com/s/1ECYwKFdKYqyKKZixLwsmig</t>
+  </si>
+  <si>
+    <t>小组例会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1fpEU98YLjfoJSoC8d6FXTw</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1UZV7nTi30-Q0WcDjIP8wiw</t>
   </si>
 </sst>
 </file>
@@ -585,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2599E4-81EE-493E-86BD-F580DA870F27}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -803,6 +817,23 @@
         <v>48</v>
       </c>
     </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>20181129</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -815,7 +846,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
+++ b/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\PRD2018_G06\渔乐生活\受控文档\会议纪要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44A2A9A-D368-4908-958B-AA5B6FB3F55A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE084C8A-F191-4BC9-B7CF-B314D2FE8FBF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>会议日期</t>
   </si>
@@ -212,6 +212,17 @@
   </si>
   <si>
     <t>https://pan.baidu.com/s/1UZV7nTi30-Q0WcDjIP8wiw</t>
+  </si>
+  <si>
+    <t>小组例会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1e3ktNZWMul5HpJA-e-Syrw</t>
   </si>
 </sst>
 </file>
@@ -599,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2599E4-81EE-493E-86BD-F580DA870F27}">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -832,6 +843,20 @@
       </c>
       <c r="E14" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>20181206</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
+++ b/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\PRD2018_G06\渔乐生活\受控文档\会议纪要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE084C8A-F191-4BC9-B7CF-B314D2FE8FBF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C965BC26-220E-413B-949A-944B9E53B0F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t>会议日期</t>
   </si>
@@ -223,6 +223,17 @@
   </si>
   <si>
     <t>https://pan.baidu.com/s/1e3ktNZWMul5HpJA-e-Syrw</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1ke0MXIqVIDdsO0qXrwQgfQ</t>
+  </si>
+  <si>
+    <t>小组例会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -610,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2599E4-81EE-493E-86BD-F580DA870F27}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -857,6 +868,20 @@
       </c>
       <c r="D15" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>20181214</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
+++ b/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\PRD2018_G06\渔乐生活\受控文档\会议纪要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C965BC26-220E-413B-949A-944B9E53B0F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571B9377-3E54-447E-8679-7EFE0B1CCCEA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" activeTab="1" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
   </bookViews>
   <sheets>
     <sheet name="小组例会与组内评审" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
     <t>会议日期</t>
   </si>
@@ -234,6 +234,17 @@
   <si>
     <t>常规</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员用户代表访谈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/16mZtHk4BSdB0mYIkO6HyxA</t>
   </si>
 </sst>
 </file>
@@ -623,7 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2599E4-81EE-493E-86BD-F580DA870F27}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -893,16 +904,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F5068E-AF4E-4913-8E14-9AB897F573A8}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
     <col min="3" max="3" width="7.88671875" customWidth="1"/>
     <col min="4" max="4" width="49.109375" customWidth="1"/>
   </cols>
@@ -1014,9 +1025,24 @@
         <v>47</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>20181216</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
+++ b/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\PRD2018_G06\渔乐生活\受控文档\会议纪要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571B9377-3E54-447E-8679-7EFE0B1CCCEA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C965BC26-220E-413B-949A-944B9E53B0F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" activeTab="1" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
   </bookViews>
   <sheets>
     <sheet name="小组例会与组内评审" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t>会议日期</t>
   </si>
@@ -234,17 +234,6 @@
   <si>
     <t>常规</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员用户代表访谈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://pan.baidu.com/s/16mZtHk4BSdB0mYIkO6HyxA</t>
   </si>
 </sst>
 </file>
@@ -634,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2599E4-81EE-493E-86BD-F580DA870F27}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -904,16 +893,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F5068E-AF4E-4913-8E14-9AB897F573A8}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="3" max="3" width="7.88671875" customWidth="1"/>
     <col min="4" max="4" width="49.109375" customWidth="1"/>
   </cols>
@@ -1025,24 +1014,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>20181216</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>61</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
+++ b/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\PRD2018_G06\渔乐生活\受控文档\会议纪要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C965BC26-220E-413B-949A-944B9E53B0F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E118BD-2D0F-40F9-8FD0-1BB29F262832}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" activeTab="1" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
   </bookViews>
   <sheets>
     <sheet name="小组例会与组内评审" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
     <t>会议日期</t>
   </si>
@@ -234,6 +234,17 @@
   <si>
     <t>常规</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员用户代表访谈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1pUWQ7aanIr9WMBVty5YGNg</t>
   </si>
 </sst>
 </file>
@@ -623,7 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2599E4-81EE-493E-86BD-F580DA870F27}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -893,10 +904,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F5068E-AF4E-4913-8E14-9AB897F573A8}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1012,6 +1023,20 @@
       </c>
       <c r="D7" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>20181216</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
+++ b/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\PRD2018_G06\渔乐生活\受控文档\会议纪要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E118BD-2D0F-40F9-8FD0-1BB29F262832}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B74DE0E-156A-4E96-8286-BEECF10C36A4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" activeTab="1" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
   <si>
     <t>会议日期</t>
   </si>
@@ -245,6 +245,13 @@
   </si>
   <si>
     <t>https://pan.baidu.com/s/1pUWQ7aanIr9WMBVty5YGNg</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1oQj0NOAZWJS8xRCUhUEwUw</t>
+  </si>
+  <si>
+    <t>访谈杨枨(课堂)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -904,16 +911,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F5068E-AF4E-4913-8E14-9AB897F573A8}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
     <col min="3" max="3" width="7.88671875" customWidth="1"/>
     <col min="4" max="4" width="49.109375" customWidth="1"/>
   </cols>
@@ -1039,9 +1046,24 @@
         <v>61</v>
       </c>
     </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>20181219</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
+++ b/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\PRD2018_G06\渔乐生活\受控文档\会议纪要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B74DE0E-156A-4E96-8286-BEECF10C36A4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4BE943-1A59-4D1C-BA48-330EEB266F2D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" activeTab="1" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
   </bookViews>
   <sheets>
     <sheet name="小组例会与组内评审" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
   <si>
     <t>会议日期</t>
   </si>
@@ -252,6 +252,17 @@
   <si>
     <t>访谈杨枨(课堂)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组例会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/12TDYb094HHFOwQjNu3dVjw</t>
   </si>
 </sst>
 </file>
@@ -639,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2599E4-81EE-493E-86BD-F580DA870F27}">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -902,6 +913,20 @@
         <v>56</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>20181220</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -913,7 +938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F5068E-AF4E-4913-8E14-9AB897F573A8}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
+++ b/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\PRD2018_G06\渔乐生活\受控文档\会议纪要\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\渔乐生活\受控文档\会议纪要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4BE943-1A59-4D1C-BA48-330EEB266F2D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADF51F9-88DA-4937-A962-8E0A63FBEE82}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" activeTab="1" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
   </bookViews>
   <sheets>
     <sheet name="小组例会与组内评审" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
   <si>
     <t>会议日期</t>
   </si>
@@ -263,6 +263,17 @@
   </si>
   <si>
     <t>https://pan.baidu.com/s/12TDYb094HHFOwQjNu3dVjw</t>
+  </si>
+  <si>
+    <t>访谈杨枨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/12nBDKzNeOERzeZZHz8v0yQ</t>
   </si>
 </sst>
 </file>
@@ -652,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2599E4-81EE-493E-86BD-F580DA870F27}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -936,10 +947,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F5068E-AF4E-4913-8E14-9AB897F573A8}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1083,6 +1094,20 @@
       </c>
       <c r="D9" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>20181227</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
+++ b/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\渔乐生活\受控文档\会议纪要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADF51F9-88DA-4937-A962-8E0A63FBEE82}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6180AD8-C322-4E7B-AFFF-5C6E9AFF9E32}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" activeTab="1" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
   </bookViews>
   <sheets>
     <sheet name="小组例会与组内评审" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t>会议日期</t>
   </si>
@@ -274,6 +274,17 @@
   </si>
   <si>
     <t>https://pan.baidu.com/s/12nBDKzNeOERzeZZHz8v0yQ</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1jfImaHk2ygcomQKCznvwbw</t>
+  </si>
+  <si>
+    <t>临时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组例会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -661,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2599E4-81EE-493E-86BD-F580DA870F27}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -938,6 +949,20 @@
         <v>66</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>20181230</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -949,7 +974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F5068E-AF4E-4913-8E14-9AB897F573A8}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
+++ b/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\渔乐生活\受控文档\会议纪要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6180AD8-C322-4E7B-AFFF-5C6E9AFF9E32}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96491E6-B29E-496F-BCE8-D4915541780C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" activeTab="2" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
   </bookViews>
   <sheets>
     <sheet name="小组例会与组内评审" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
   <si>
     <t>会议日期</t>
   </si>
@@ -284,6 +284,17 @@
   </si>
   <si>
     <t>小组例会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1biydF8oHR0KGdYjOnzyHvg</t>
+  </si>
+  <si>
+    <t>预评审</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求规格说明书预评审</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -674,7 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2599E4-81EE-493E-86BD-F580DA870F27}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -1144,14 +1155,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4623298-D858-4474-A699-CD832EF9EB8D}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.21875" customWidth="1"/>
     <col min="4" max="4" width="48.44140625" customWidth="1"/>
   </cols>
@@ -1187,6 +1199,20 @@
         <v>30</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20190102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
+++ b/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\渔乐生活\受控文档\会议纪要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96491E6-B29E-496F-BCE8-D4915541780C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3C09A5-4A7B-49FE-8709-5B052DEE3733}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" activeTab="2" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" activeTab="1" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
   </bookViews>
   <sheets>
     <sheet name="小组例会与组内评审" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
   <si>
     <t>会议日期</t>
   </si>
@@ -296,6 +296,45 @@
   <si>
     <t>需求规格说明书预评审</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组例会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>访谈柯海峰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟JAD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1-gjq8DgREnr21yjd2Vzlpw</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1VueQRJU5RSLVBxRqw6W--Q</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1sL2CpaSr52djvN2nC7TiYg</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/10U2WehDlo59AbguLxjBfkQ</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1RCickIR4XqREr5DNRLYY9w</t>
   </si>
 </sst>
 </file>
@@ -683,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2599E4-81EE-493E-86BD-F580DA870F27}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -974,6 +1013,20 @@
         <v>70</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>20190104</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -983,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F5068E-AF4E-4913-8E14-9AB897F573A8}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1146,6 +1199,62 @@
         <v>69</v>
       </c>
     </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>20190102</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>20190101</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>20190103</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>20190103</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1157,7 +1266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4623298-D858-4474-A699-CD832EF9EB8D}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>

--- a/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
+++ b/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\渔乐生活\受控文档\会议纪要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3C09A5-4A7B-49FE-8709-5B052DEE3733}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3ED4A3-9F33-4AA6-A087-5AB15F284F26}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" activeTab="1" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
   <si>
     <t>会议日期</t>
   </si>
@@ -335,6 +335,20 @@
   </si>
   <si>
     <t>https://pan.baidu.com/s/1RCickIR4XqREr5DNRLYY9w</t>
+  </si>
+  <si>
+    <t>CCB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1n-QC6p1KPXXCS29_OaeoFQ</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1lV67kC1cD1juzkOEDXDC2w</t>
   </si>
 </sst>
 </file>
@@ -1036,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F5068E-AF4E-4913-8E14-9AB897F573A8}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1253,6 +1267,34 @@
       </c>
       <c r="D14" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>20190106</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>20190106</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
+++ b/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\渔乐生活\受控文档\会议纪要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3ED4A3-9F33-4AA6-A087-5AB15F284F26}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E57CF5-CF88-4112-B217-B6A4DDA0641E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" activeTab="1" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
   </bookViews>
   <sheets>
     <sheet name="小组例会与组内评审" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="93">
   <si>
     <t>会议日期</t>
   </si>
@@ -349,6 +349,13 @@
   </si>
   <si>
     <t>https://pan.baidu.com/s/1lV67kC1cD1juzkOEDXDC2w</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1tQezp33WikW7XdHuV5G5mQ</t>
+  </si>
+  <si>
+    <t>组内评审</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -736,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2599E4-81EE-493E-86BD-F580DA870F27}">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1041,6 +1048,20 @@
         <v>82</v>
       </c>
     </row>
+    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>20190108</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1052,7 +1073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F5068E-AF4E-4913-8E14-9AB897F573A8}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>

--- a/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
+++ b/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\渔乐生活\受控文档\会议纪要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E57CF5-CF88-4112-B217-B6A4DDA0641E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A7A810-1FB8-457A-AA0E-18A4D2F8E9C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" activeTab="1" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
   </bookViews>
   <sheets>
     <sheet name="小组例会与组内评审" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="95">
   <si>
     <t>会议日期</t>
   </si>
@@ -355,6 +355,13 @@
   </si>
   <si>
     <t>组内评审</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/11lp1_FXA4PTig4FaCBvi-A</t>
+  </si>
+  <si>
+    <t>游客代表访谈</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -745,7 +752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2599E4-81EE-493E-86BD-F580DA870F27}">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -1071,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F5068E-AF4E-4913-8E14-9AB897F573A8}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1208,72 +1215,72 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>20181219</v>
+        <v>20181216</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>20181227</v>
+        <v>20181219</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>20190102</v>
+        <v>20181227</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>20190101</v>
+        <v>20190102</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>20190103</v>
+        <v>20190101</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1281,27 +1288,27 @@
         <v>20190103</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>20190106</v>
+        <v>20190103</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1309,12 +1316,26 @@
         <v>20190106</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>20190106</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>90</v>
       </c>
     </row>

--- a/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
+++ b/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\渔乐生活\受控文档\会议纪要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A7A810-1FB8-457A-AA0E-18A4D2F8E9C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E685F2A4-12B7-4012-9A90-AF8B6F9E99C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" activeTab="1" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" activeTab="2" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
   </bookViews>
   <sheets>
     <sheet name="小组例会与组内评审" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="106">
   <si>
     <t>会议日期</t>
   </si>
@@ -362,6 +362,232 @@
   </si>
   <si>
     <t>游客代表访谈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>访谈彭彬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>访谈杨枨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频链接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>客户/用户代表访谈，共</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>管理员用户代表访谈，共</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>游客代表访谈，共</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>开发者代表访谈，共</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>其他干系人访谈，共</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>小组例会，共</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>组内评审，共</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -369,7 +595,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,8 +620,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,6 +649,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,7 +673,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -434,6 +684,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -750,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2599E4-81EE-493E-86BD-F580DA870F27}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -926,132 +1182,132 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>20181115</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>20181122</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>20181125</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>20181129</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>20181206</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>20181214</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>20181220</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>20181230</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>20190104</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="4" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1067,6 +1323,20 @@
       </c>
       <c r="D20" s="3" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1078,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F5068E-AF4E-4913-8E14-9AB897F573A8}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1092,7 +1362,7 @@
     <col min="4" max="4" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1106,223 +1376,214 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>20180926</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>20181011</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>20181018</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>20181101</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    </row>
+    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>20181115</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
+        <v>20181123</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>20181125</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>20181216</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>20181216</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>20181216</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>20181219</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>20181219</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>20181227</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>20190102</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>20190101</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>20190101</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>20190103</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>20190103</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>20190106</v>
+        <v>20190103</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1330,13 +1591,69 @@
         <v>20190106</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>20190106</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>20190109</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1350,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4623298-D858-4474-A699-CD832EF9EB8D}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
+++ b/渔乐生活/受控文档/会议纪要/PRD2018-G06-会议录音链接.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\渔乐生活\受控文档\会议纪要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E685F2A4-12B7-4012-9A90-AF8B6F9E99C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC507A1-5B3B-4474-B6CE-73E0249DE862}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" activeTab="2" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="10824" xr2:uid="{780C016F-27AA-491E-850C-9566612BDA08}"/>
   </bookViews>
   <sheets>
     <sheet name="小组例会与组内评审" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="108">
   <si>
     <t>会议日期</t>
   </si>
@@ -574,7 +574,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3</t>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -589,6 +589,12 @@
       <t>次</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1ovFFyk7DkSt6lx4iJ4XVOQ</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1ZW53QzdUC2hsVkSIxN7_Dg</t>
   </si>
 </sst>
 </file>
@@ -1006,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2599E4-81EE-493E-86BD-F580DA870F27}">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1325,17 +1331,45 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20190111</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>20190116</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5" t="s">
+    <row r="26" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1351,7 +1385,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1667,7 +1701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4623298-D858-4474-A699-CD832EF9EB8D}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
